--- a/pins.xlsx
+++ b/pins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmet\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mertmihci\Desktop\projects\termproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3945D040-65D2-4993-B073-1EECD12A2FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD370DE0-2E14-43CF-8EB7-0AF077EC46D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{A85DE85A-45F1-4060-88CD-CB1C1CB07C82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A85DE85A-45F1-4060-88CD-CB1C1CB07C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>LM35 ADC</t>
+  </si>
+  <si>
+    <t>MOTOR</t>
+  </si>
+  <si>
+    <t>KEYPAD</t>
+  </si>
+  <si>
+    <t>I2C-2</t>
+  </si>
+  <si>
+    <t>Board LED</t>
+  </si>
+  <si>
+    <t>TIMER0B</t>
+  </si>
+  <si>
+    <t>TIMER0A</t>
+  </si>
+  <si>
+    <t>SPEAKER</t>
   </si>
 </sst>
 </file>
@@ -97,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +158,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +246,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,20 +603,20 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -562,57 +637,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -623,48 +720,66 @@
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mertmihci\Desktop\projects\termproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD370DE0-2E14-43CF-8EB7-0AF077EC46D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEFF32C-1027-4178-BB7C-FD32929D4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A85DE85A-45F1-4060-88CD-CB1C1CB07C82}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A85DE85A-45F1-4060-88CD-CB1C1CB07C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +266,10 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +607,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,11 +649,13 @@
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,11 +666,13 @@
       <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
@@ -679,11 +687,13 @@
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="12" t="s">
         <v>13</v>
       </c>
@@ -698,12 +708,12 @@
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>13</v>
@@ -716,13 +726,13 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
@@ -741,13 +751,11 @@
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -760,11 +768,9 @@
         <v>15</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -777,11 +783,9 @@
         <v>14</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mertmihci\Desktop\projects\termproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEFF32C-1027-4178-BB7C-FD32929D4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96242528-2E6B-4C9B-8857-8246D23B38AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A85DE85A-45F1-4060-88CD-CB1C1CB07C82}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{A85DE85A-45F1-4060-88CD-CB1C1CB07C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,13 +80,13 @@
     <t>Board LED</t>
   </si>
   <si>
-    <t>TIMER0B</t>
-  </si>
-  <si>
     <t>TIMER0A</t>
   </si>
   <si>
     <t>SPEAKER</t>
+  </si>
+  <si>
+    <t>TIMER2A</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,9 @@
       <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -736,7 +738,9 @@
       <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -746,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -764,9 +768,7 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="1"/>
       <c r="E8" s="15"/>
       <c r="F8" s="5"/>
@@ -779,9 +781,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="1"/>
       <c r="E9" s="15"/>
       <c r="F9" s="5"/>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mertmihci\Desktop\projects\termproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEFF32C-1027-4178-BB7C-FD32929D4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A597218D-63BC-48BB-9056-BAA931E34809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A85DE85A-45F1-4060-88CD-CB1C1CB07C82}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{A85DE85A-45F1-4060-88CD-CB1C1CB07C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -80,13 +80,16 @@
     <t>Board LED</t>
   </si>
   <si>
-    <t>TIMER0B</t>
-  </si>
-  <si>
     <t>TIMER0A</t>
   </si>
   <si>
     <t>SPEAKER</t>
+  </si>
+  <si>
+    <t>TIMER2A</t>
+  </si>
+  <si>
+    <t>TRIMPOT</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +200,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,11 +230,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,6 +290,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +630,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +679,9 @@
       <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -736,7 +761,9 @@
       <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -745,8 +772,8 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>16</v>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -764,10 +791,10 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
       <c r="E8" s="15"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -779,9 +806,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="1"/>
       <c r="E9" s="15"/>
       <c r="F9" s="5"/>
